--- a/Comparing power tools_charu and vahini.xlsx
+++ b/Comparing power tools_charu and vahini.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Circuits</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>1-bit Adder(VDD=1.8V)</t>
-  </si>
-  <si>
-    <t>Charu Python Average Power(W) with abs</t>
   </si>
 </sst>
 </file>
@@ -112,7 +109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -135,15 +132,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -154,6 +145,9 @@
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -467,12 +461,11 @@
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
     <col min="3" max="3" width="30.42578125" customWidth="1"/>
-    <col min="4" max="4" width="38.85546875" customWidth="1"/>
-    <col min="5" max="6" width="27.28515625" customWidth="1"/>
-    <col min="7" max="12" width="8.7109375" customWidth="1"/>
+    <col min="4" max="5" width="27.28515625" customWidth="1"/>
+    <col min="6" max="11" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -482,727 +475,699 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="7">
-        <v>2.7747787180722801E-6</v>
-      </c>
-      <c r="C2" s="7">
-        <v>1.8643170714285699E-6</v>
-      </c>
-      <c r="D2" s="8">
-        <v>2.7426265952380902E-6</v>
-      </c>
-      <c r="E2" s="7">
-        <v>6.3359999999999996E-10</v>
-      </c>
-      <c r="F2" s="8">
+      <c r="B2" s="10">
+        <v>1.4886853000000001E-6</v>
+      </c>
+      <c r="C2" s="14">
+        <v>1.5099999999999999E-6</v>
+      </c>
+      <c r="D2" s="10">
         <v>6.3362710000000002E-10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="8">
+        <v>6.3362710000000002E-10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="9">
-        <v>1.2831632290544099E-3</v>
-      </c>
-      <c r="C3" s="10">
-        <v>2.33222183422459E-4</v>
+      <c r="B3" s="10">
+        <v>3.7827112599999998E-5</v>
       </c>
       <c r="D3" s="10">
-        <v>1.2821409000000001E-3</v>
-      </c>
-      <c r="E3" s="11">
+        <v>4.0092519999999998E-9</v>
+      </c>
+      <c r="E3" s="8">
         <v>2.97723E-8</v>
       </c>
-      <c r="F3" s="8">
-        <v>2.97723E-8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11">
-        <v>3.4601334161517798E-4</v>
-      </c>
-      <c r="C4" s="15">
-        <v>4.8731810000000001E-5</v>
+      <c r="B4" s="10">
+        <v>1.5177553599999999E-4</v>
+      </c>
+      <c r="C4" s="14">
+        <v>1.3651000000000001E-4</v>
       </c>
       <c r="D4" s="10">
-        <v>3.4570715344335302E-4</v>
-      </c>
-      <c r="E4" s="11">
+        <v>2.97723E-8</v>
+      </c>
+      <c r="E4" s="12">
         <v>4.0089999999999997E-9</v>
       </c>
-      <c r="F4" s="14">
-        <v>4.0089999999999997E-9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11">
-        <v>3.5224125630536702E-5</v>
-      </c>
-      <c r="C5" s="7">
-        <v>3.5078440295752899E-5</v>
-      </c>
-      <c r="D5" s="8">
-        <v>3.50814975806949E-5</v>
-      </c>
-      <c r="E5" s="11">
+      <c r="B5" s="10">
+        <v>3.5404911854499997E-5</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.77E-5</v>
+      </c>
+      <c r="D5" s="10">
         <v>3.5011089999999998E-4</v>
       </c>
-      <c r="F5" s="8">
+      <c r="E5" s="8">
         <v>3.5011089999999998E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="11">
-        <v>3.3502340602426402E-5</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3.3311518645646199E-5</v>
-      </c>
-      <c r="D6" s="8">
-        <v>3.3363806169455701E-5</v>
-      </c>
-      <c r="E6" s="11">
+      <c r="B6" s="10">
+        <v>3.2447994000000002E-5</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1.6200000000000001E-5</v>
+      </c>
+      <c r="D6" s="10">
         <v>2.332705E-4</v>
       </c>
-      <c r="F6" s="8">
+      <c r="E6" s="8">
         <v>2.332705E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="11">
-        <v>3.8175657285714297E-12</v>
-      </c>
-      <c r="C7" s="8">
-        <v>3.8074451580310896E-12</v>
-      </c>
-      <c r="D7" s="8">
-        <v>3.8076114222797901E-12</v>
-      </c>
-      <c r="E7" s="11">
+      <c r="B7" s="10">
+        <v>3.9566081599999999E-12</v>
+      </c>
+      <c r="D7" s="10">
         <v>6.5156170000000003E-12</v>
       </c>
-      <c r="F7" s="8">
+      <c r="E7" s="8">
         <v>6.5160000000000001E-12</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="11">
-        <v>6.7776801596464397E-12</v>
-      </c>
-      <c r="C8" s="8">
-        <v>6.7604437508481101E-12</v>
-      </c>
-      <c r="D8" s="8">
-        <v>6.7604891216531698E-12</v>
-      </c>
-      <c r="E8" s="11">
-        <v>1.3032E-11</v>
-      </c>
-      <c r="F8" s="8">
+      <c r="B8" s="10">
+        <v>3.0639335999999999E-12</v>
+      </c>
+      <c r="D8" s="10">
         <v>1.3031239999999999E-11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E8" s="8">
+        <v>1.3031239999999999E-11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="12">
-        <v>1.17141485578772E-4</v>
-      </c>
-      <c r="C9" s="13">
-        <v>1.1668486912983099E-4</v>
+      <c r="B9" s="10">
+        <v>3.7399999994213699E-11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.6699999999999999E-4</v>
       </c>
       <c r="D9" s="10">
-        <v>1.1668502398221199E-4</v>
-      </c>
-      <c r="E9" s="11">
         <v>3.2580009999999998E-12</v>
       </c>
-      <c r="F9" s="8">
+      <c r="E9" s="8">
         <v>3.2580009999999998E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D10" s="2"/>
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D13" s="2"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" s="7"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" s="9"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" s="13"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="7"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="2"/>
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D42" s="2"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D43" s="2"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="2"/>
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="2"/>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D46" s="2"/>
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="3"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="2"/>
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D48" s="2"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3"/>
-    </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D49" s="2"/>
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D50" s="2"/>
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D51" s="2"/>
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D52" s="2"/>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D53" s="2"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
       <c r="B54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D54" s="2"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D56" s="2"/>
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D57" s="2"/>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D59" s="2"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D60" s="2"/>
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D61" s="2"/>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="3"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D62" s="2"/>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="3"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D63" s="2"/>
+      <c r="E63" s="3"/>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" s="2"/>
+      <c r="E64" s="3"/>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="3"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D65" s="2"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D66" s="2"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D67" s="2"/>
+      <c r="E67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D68" s="2"/>
+      <c r="E68" s="3"/>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="2"/>
+      <c r="E69" s="3"/>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="3"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D70" s="2"/>
+      <c r="E70" s="3"/>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D71" s="2"/>
+      <c r="E71" s="3"/>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1"/>
       <c r="B72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D72" s="2"/>
+      <c r="E72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
       <c r="B73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3"/>
-    </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D73" s="2"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1"/>
       <c r="B74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="2"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
       <c r="B75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D75" s="2"/>
+      <c r="E75" s="3"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1"/>
       <c r="B76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D76" s="2"/>
+      <c r="E76" s="3"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1"/>
       <c r="B77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D77" s="2"/>
+      <c r="E77" s="3"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="3"/>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D78" s="2"/>
+      <c r="E78" s="3"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="3"/>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D79" s="2"/>
+      <c r="E79" s="3"/>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="3"/>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D80" s="2"/>
+      <c r="E80" s="3"/>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
       <c r="B81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="3"/>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D81" s="2"/>
+      <c r="E81" s="3"/>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1"/>
       <c r="B82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D82" s="2"/>
+      <c r="E82" s="3"/>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1"/>
       <c r="B83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D83" s="2"/>
+      <c r="E83" s="3"/>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D84" s="2"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1"/>
       <c r="B85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D85" s="2"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1"/>
       <c r="B86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="3"/>
-    </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D86" s="2"/>
+      <c r="E86" s="3"/>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="3"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D87" s="2"/>
+      <c r="E87" s="3"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="3"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D88" s="2"/>
+      <c r="E88" s="3"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1"/>
       <c r="B89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="3"/>
-    </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D89" s="2"/>
+      <c r="E89" s="3"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1"/>
       <c r="B90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D90" s="2"/>
+      <c r="E90" s="3"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
       <c r="B91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D91" s="2"/>
+      <c r="E91" s="3"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1"/>
       <c r="B92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D92" s="2"/>
+      <c r="E92" s="3"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1"/>
       <c r="B93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D93" s="2"/>
+      <c r="E93" s="3"/>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
       <c r="B94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="3"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D94" s="2"/>
+      <c r="E94" s="3"/>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
       <c r="B95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="3"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D95" s="2"/>
+      <c r="E95" s="3"/>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
       <c r="B96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="3"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D96" s="2"/>
+      <c r="E96" s="3"/>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
       <c r="B97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="3"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D97" s="2"/>
+      <c r="E97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
       <c r="B98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D98" s="2"/>
+      <c r="E98" s="3"/>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1"/>
       <c r="B99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D99" s="2"/>
+      <c r="E99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D100" s="2"/>
+      <c r="E100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
       <c r="B101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="3"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/Comparing power tools_charu and vahini.xlsx
+++ b/Comparing power tools_charu and vahini.xlsx
@@ -453,7 +453,7 @@
   <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
         <v>2.332705E-4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -578,7 +578,7 @@
         <v>6.5160000000000001E-12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
